--- a/Handheld DMX Console - V3/Default Configuration/Outputs/BOM/BOM_PartType-Handheld DMX Console - V3.xlsx
+++ b/Handheld DMX Console - V3/Default Configuration/Outputs/BOM/BOM_PartType-Handheld DMX Console - V3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E4A269B-2936-4A72-8E8C-2A801AB6BCAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{574078F6-AFEA-47D3-9D76-974851CBE144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33585" yWindow="690" windowWidth="21600" windowHeight="11385" xr2:uid="{2638BFA8-1B77-4D75-B785-BFF75DDA0A53}"/>
+    <workbookView xWindow="30405" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{49A53553-393B-4179-A8BA-D120B78BF363}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Handheld DMX Conso" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t>Comment</t>
   </si>
@@ -66,7 +66,7 @@
     <t>0.1uF</t>
   </si>
   <si>
-    <t>C2, C4, C6, C10, C11, C12, C13, C15, C24, C25, C27, C31</t>
+    <t>C2, C4, C6, C9, C10, C11, C12, C13, C15, C24, C25, C27, C31</t>
   </si>
   <si>
     <t>DNP</t>
@@ -129,21 +129,6 @@
     <t>MOLX-52271-0579</t>
   </si>
   <si>
-    <t>1054500101</t>
-  </si>
-  <si>
-    <t>CONN RCP USB3.1 TYPEC 24P SMD RA</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>FP-1054500101-MFG</t>
-  </si>
-  <si>
-    <t>CMP-04767-000004-1</t>
-  </si>
-  <si>
     <t>SD12-4R7-R</t>
   </si>
   <si>
@@ -159,6 +144,18 @@
     <t>CMP-2000-07038-1</t>
   </si>
   <si>
+    <t>SS-52400-003</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>SS-52400-00X</t>
+  </si>
+  <si>
     <t>FTSH-105-01-F-DV-K</t>
   </si>
   <si>
@@ -198,7 +195,7 @@
     <t>10K</t>
   </si>
   <si>
-    <t>R3, R4, R5, R6, R7, R10, R19</t>
+    <t>R3, R5, R6, R7, R10, R19</t>
   </si>
   <si>
     <t>14.7K</t>
@@ -225,9 +222,6 @@
     <t>STM32G431KBTx</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -277,6 +271,21 @@
   </si>
   <si>
     <t>CMP-0780-00014-3</t>
+  </si>
+  <si>
+    <t>SN74LVC2G74DCUR</t>
+  </si>
+  <si>
+    <t>Single Positive-Edge-Triggered D-Type Flip-Flop with Clear and Preset, DCU0008A, LARGE T&amp;R</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>DCU0008A_N</t>
+  </si>
+  <si>
+    <t>CMP-0859-00648-3</t>
   </si>
   <si>
     <t>XLH536024.000000I</t>
@@ -695,8 +704,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D653B2FC-F7A5-47A7-B099-9D82D0E56E97}">
-  <dimension ref="A1:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF7E068-E919-4091-AAC1-799E7E5B8C51}">
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -762,7 +771,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -899,7 +908,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -907,19 +916,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -927,19 +936,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -947,19 +956,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -967,39 +976,39 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F14" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -1007,19 +1016,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -1027,19 +1036,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -1047,19 +1056,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -1067,19 +1076,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -1087,19 +1096,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1107,19 +1116,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -1127,19 +1136,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -1147,21 +1156,41 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="3">
         <v>1</v>
       </c>
     </row>

--- a/Handheld DMX Console - V3/Default Configuration/Outputs/BOM/BOM_PartType-Handheld DMX Console - V3.xlsx
+++ b/Handheld DMX Console - V3/Default Configuration/Outputs/BOM/BOM_PartType-Handheld DMX Console - V3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{574078F6-AFEA-47D3-9D76-974851CBE144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD06335C-32F8-4899-8A68-2A310A704AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30405" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{49A53553-393B-4179-A8BA-D120B78BF363}"/>
+    <workbookView xWindow="30405" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{86179304-9034-472F-AA2A-58504C6A1666}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Handheld DMX Conso" sheetId="1" r:id="rId1"/>
@@ -704,7 +704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF7E068-E919-4091-AAC1-799E7E5B8C51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090584D0-B4F5-4522-8EC4-63559ADA4701}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Handheld DMX Console - V3/Default Configuration/Outputs/BOM/BOM_PartType-Handheld DMX Console - V3.xlsx
+++ b/Handheld DMX Console - V3/Default Configuration/Outputs/BOM/BOM_PartType-Handheld DMX Console - V3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD06335C-32F8-4899-8A68-2A310A704AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D03FD6D3-E7CB-4244-87FC-D0AF0F5001FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30405" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{86179304-9034-472F-AA2A-58504C6A1666}"/>
+    <workbookView xWindow="30405" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{0F5D4D6C-E39A-48C5-A3AD-1306E4FD9C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Handheld DMX Conso" sheetId="1" r:id="rId1"/>
@@ -704,7 +704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090584D0-B4F5-4522-8EC4-63559ADA4701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EE5851-8C12-4547-8B5C-5959EEF7B9FD}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Handheld DMX Console - V3/Default Configuration/Outputs/BOM/BOM_PartType-Handheld DMX Console - V3.xlsx
+++ b/Handheld DMX Console - V3/Default Configuration/Outputs/BOM/BOM_PartType-Handheld DMX Console - V3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D03FD6D3-E7CB-4244-87FC-D0AF0F5001FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{876BBC06-4D16-4129-B5CB-D1E25EAF1374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30405" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{0F5D4D6C-E39A-48C5-A3AD-1306E4FD9C0E}"/>
+    <workbookView xWindow="30405" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{54F1665F-4C9A-44FF-A7AC-B5D593BF10F5}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Handheld DMX Conso" sheetId="1" r:id="rId1"/>
@@ -704,7 +704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EE5851-8C12-4547-8B5C-5959EEF7B9FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D218E0-C9EC-429D-A47E-0EF1216CD8FA}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Handheld DMX Console - V3/Default Configuration/Outputs/BOM/BOM_PartType-Handheld DMX Console - V3.xlsx
+++ b/Handheld DMX Console - V3/Default Configuration/Outputs/BOM/BOM_PartType-Handheld DMX Console - V3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{876BBC06-4D16-4129-B5CB-D1E25EAF1374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15D75A27-2076-4680-AE3F-9DF1F2AA216D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30405" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{54F1665F-4C9A-44FF-A7AC-B5D593BF10F5}"/>
+    <workbookView xWindow="30405" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{0DB8A0E8-E41A-4366-98B6-6AED07366911}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Handheld DMX Conso" sheetId="1" r:id="rId1"/>
@@ -704,7 +704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D218E0-C9EC-429D-A47E-0EF1216CD8FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAC47EC-BD09-4797-BFDF-6C4C17CBC9AF}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Handheld DMX Console - V3/Default Configuration/Outputs/BOM/BOM_PartType-Handheld DMX Console - V3.xlsx
+++ b/Handheld DMX Console - V3/Default Configuration/Outputs/BOM/BOM_PartType-Handheld DMX Console - V3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15D75A27-2076-4680-AE3F-9DF1F2AA216D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D77A5B71-D23D-4213-B243-1876DE9A9C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30405" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{0DB8A0E8-E41A-4366-98B6-6AED07366911}"/>
+    <workbookView xWindow="30405" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{A69E4006-9307-4AE5-AD67-715EF1D194D9}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Handheld DMX Conso" sheetId="1" r:id="rId1"/>
@@ -704,7 +704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAC47EC-BD09-4797-BFDF-6C4C17CBC9AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117481F7-24E3-4347-8A07-C43A16A6158C}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
